--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/133.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/133.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1867512239347659</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.259398565983374</v>
+        <v>-1.270337246280462</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07640774075741916</v>
+        <v>-0.07331827899705635</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1685645162074853</v>
+        <v>-0.1857200812756625</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1697957295440938</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.349109760881168</v>
+        <v>-1.368069945389709</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.186736274746935</v>
+        <v>-0.1782869764448463</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1733169727433931</v>
+        <v>-0.1903265330024795</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.151751211619898</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.477598373025407</v>
+        <v>-1.502073159173309</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1871582286452076</v>
+        <v>-0.1755012046873926</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1880882792791164</v>
+        <v>-0.2139793120752004</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1337533728757936</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.640824449348544</v>
+        <v>-1.667325782246628</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2082311027412929</v>
+        <v>-0.1896242498707524</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1710626584910301</v>
+        <v>-0.199034259816659</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1110618825702396</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.749704615631879</v>
+        <v>-1.770265012848055</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2201173542493806</v>
+        <v>-0.2006271722838404</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1826393798038452</v>
+        <v>-0.2027646826889307</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.0757592981016572</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.596749977628284</v>
+        <v>-1.624600394962367</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1299155831930412</v>
+        <v>-0.1015380884981397</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1709706754613028</v>
+        <v>-0.1909149323831157</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.01928222403354906</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.403763741068154</v>
+        <v>-1.424659949345239</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.06144808801796863</v>
+        <v>-0.03314651582379441</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1598903704993968</v>
+        <v>-0.1730965054816659</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.06585894501585882</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.193693481796301</v>
+        <v>-1.21806606457784</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05970816261372611</v>
+        <v>0.09793368168180676</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1533347545712167</v>
+        <v>-0.1652443668487589</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1842608593954576</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.8345099710480338</v>
+        <v>-0.864683324894753</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1437529108707035</v>
+        <v>0.1801884109793301</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1389430605391296</v>
+        <v>-0.1411477331564018</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.3377950375947623</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4805797133308561</v>
+        <v>-0.5132336888840291</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1346480509757969</v>
+        <v>0.1646827002538797</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07389499799296528</v>
+        <v>-0.07443083564232879</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.5262606033111386</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05553826526609087</v>
+        <v>0.02822368558137093</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1157433482947111</v>
+        <v>0.1381872075481596</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04586690671191165</v>
+        <v>0.04257887841118525</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.7457765834638379</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5548717922606841</v>
+        <v>0.5158520070311491</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0544198684284548</v>
+        <v>0.08459176222708306</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1888450361103278</v>
+        <v>0.1855599279057832</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.9897793036041981</v>
       </c>
       <c r="E14" t="n">
-        <v>1.131488584803257</v>
+        <v>1.091456986246722</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.07392857909905619</v>
+        <v>-0.04837773750815396</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2909666397808458</v>
+        <v>0.290819174923664</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>1.247710494594921</v>
       </c>
       <c r="E15" t="n">
-        <v>1.771437883385176</v>
+        <v>1.720603389004007</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2233396803860161</v>
+        <v>-0.1904155959360249</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5106396353466051</v>
+        <v>0.5123697923343319</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.507013332753506</v>
       </c>
       <c r="E16" t="n">
-        <v>2.439780737190996</v>
+        <v>2.392810990106463</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.3741422075036119</v>
+        <v>-0.3334638076428047</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6438266822473875</v>
+        <v>0.6357730569779351</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.756764775114025</v>
       </c>
       <c r="E17" t="n">
-        <v>3.097660886377365</v>
+        <v>3.055281530490649</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5101807283259391</v>
+        <v>-0.4669516244503143</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7925413405949838</v>
+        <v>0.7800082877826237</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.98829394902715</v>
       </c>
       <c r="E18" t="n">
-        <v>3.696787240337477</v>
+        <v>3.65455096916367</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.6535545307569914</v>
+        <v>-0.609042044609458</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9616557908687566</v>
+        <v>0.9551264558062129</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>2.197472039469939</v>
       </c>
       <c r="E19" t="n">
-        <v>4.200235182852251</v>
+        <v>4.158296761488989</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.8299663013891259</v>
+        <v>-0.7804794313958665</v>
       </c>
       <c r="G19" t="n">
-        <v>1.077809916740998</v>
+        <v>1.067037681926274</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.382509857373947</v>
       </c>
       <c r="E20" t="n">
-        <v>4.673768200032396</v>
+        <v>4.630014938892136</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.004605573638897</v>
+        <v>-0.9570196862600009</v>
       </c>
       <c r="G20" t="n">
-        <v>1.250679610704588</v>
+        <v>1.244651072137226</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.541583336065691</v>
       </c>
       <c r="E21" t="n">
-        <v>5.170762729985354</v>
+        <v>5.137533495484362</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.205011774597025</v>
+        <v>-1.160195598446583</v>
       </c>
       <c r="G21" t="n">
-        <v>1.409721189199182</v>
+        <v>1.401975634076911</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.670979389397725</v>
       </c>
       <c r="E22" t="n">
-        <v>5.557149856763432</v>
+        <v>5.530274751554075</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.385158348245704</v>
+        <v>-1.351381595710622</v>
       </c>
       <c r="G22" t="n">
-        <v>1.529610118087968</v>
+        <v>1.523924690821969</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.763172863459242</v>
       </c>
       <c r="E23" t="n">
-        <v>5.810259413659091</v>
+        <v>5.778741355520645</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.586793909696377</v>
+        <v>-1.55422899707675</v>
       </c>
       <c r="G23" t="n">
-        <v>1.678228413261564</v>
+        <v>1.669621429765658</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.814620299554922</v>
       </c>
       <c r="E24" t="n">
-        <v>6.093038607810106</v>
+        <v>6.06086206798266</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.730307876744157</v>
+        <v>-1.701463166660165</v>
       </c>
       <c r="G24" t="n">
-        <v>1.830981564628614</v>
+        <v>1.829720083078069</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.825565257620103</v>
       </c>
       <c r="E25" t="n">
-        <v>6.218453818722981</v>
+        <v>6.17254552660054</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.90164014006802</v>
+        <v>-1.87999784721648</v>
       </c>
       <c r="G25" t="n">
-        <v>1.860897950011333</v>
+        <v>1.849843925915064</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.798169167533282</v>
       </c>
       <c r="E26" t="n">
-        <v>6.256526032741517</v>
+        <v>6.203740914110894</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.946038012440417</v>
+        <v>-1.921405541098697</v>
       </c>
       <c r="G26" t="n">
-        <v>1.858252342870607</v>
+        <v>1.847179338149155</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.735122674362456</v>
       </c>
       <c r="E27" t="n">
-        <v>6.261296009854515</v>
+        <v>6.196976511305714</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.006836605017992</v>
+        <v>-1.983638630925589</v>
       </c>
       <c r="G27" t="n">
-        <v>1.951997650643582</v>
+        <v>1.94090858539313</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.638881607231236</v>
       </c>
       <c r="E28" t="n">
-        <v>6.343944952136584</v>
+        <v>6.279682395463329</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.085112703267789</v>
+        <v>-2.06275717692384</v>
       </c>
       <c r="G28" t="n">
-        <v>1.9855276550513</v>
+        <v>1.975413901925575</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.515427638421961</v>
       </c>
       <c r="E29" t="n">
-        <v>6.237730833667249</v>
+        <v>6.169650251236267</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.150442555095498</v>
+        <v>-2.12780596949405</v>
       </c>
       <c r="G29" t="n">
-        <v>1.992170873864934</v>
+        <v>1.986000710632754</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.372160496814299</v>
       </c>
       <c r="E30" t="n">
-        <v>6.195417179944624</v>
+        <v>6.131645199429914</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.255636099949288</v>
+        <v>-2.248021219131154</v>
       </c>
       <c r="G30" t="n">
-        <v>2.018714548157654</v>
+        <v>2.017071994055383</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.215903035044862</v>
       </c>
       <c r="E31" t="n">
-        <v>6.0815086080362</v>
+        <v>6.012366570643128</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.310336801675183</v>
+        <v>-2.319151842024044</v>
       </c>
       <c r="G31" t="n">
-        <v>1.951279306982854</v>
+        <v>1.942735105554857</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.052911568921725</v>
       </c>
       <c r="E32" t="n">
-        <v>5.866221596935531</v>
+        <v>5.796260472563459</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.332224382605995</v>
+        <v>-2.345092516455219</v>
       </c>
       <c r="G32" t="n">
-        <v>1.92925886167577</v>
+        <v>1.913424640129865</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.887179036014084</v>
       </c>
       <c r="E33" t="n">
-        <v>5.67970921361049</v>
+        <v>5.619102617356869</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.379686165897164</v>
+        <v>-2.400486011000249</v>
       </c>
       <c r="G33" t="n">
-        <v>1.917699660940045</v>
+        <v>1.909037195616684</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.723831556571844</v>
       </c>
       <c r="E34" t="n">
-        <v>5.42407669361374</v>
+        <v>5.374037925442117</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.470796816890094</v>
+        <v>-2.486868296250772</v>
       </c>
       <c r="G34" t="n">
-        <v>1.830054434090887</v>
+        <v>1.826068502802706</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.56596022107774</v>
       </c>
       <c r="E35" t="n">
-        <v>5.228500331740338</v>
+        <v>5.179709904686442</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.473115373258457</v>
+        <v>-2.493916678409634</v>
       </c>
       <c r="G35" t="n">
-        <v>1.782560529741718</v>
+        <v>1.776042875063902</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.414922548052858</v>
       </c>
       <c r="E36" t="n">
-        <v>5.039829997336934</v>
+        <v>4.985284060708676</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.445698590207374</v>
+        <v>-2.462405920511642</v>
       </c>
       <c r="G36" t="n">
-        <v>1.692141211519833</v>
+        <v>1.683538608168199</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.27106736114817</v>
       </c>
       <c r="E37" t="n">
-        <v>4.693272982478845</v>
+        <v>4.649840931918584</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.381344050504391</v>
+        <v>-2.401164933362522</v>
       </c>
       <c r="G37" t="n">
-        <v>1.600177162417767</v>
+        <v>1.593024386820405</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.13294096482872</v>
       </c>
       <c r="E38" t="n">
-        <v>4.507484783006896</v>
+        <v>4.469222762736542</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.259051882457969</v>
+        <v>-2.273177117713466</v>
       </c>
       <c r="G38" t="n">
-        <v>1.511474860750791</v>
+        <v>1.498417650673794</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.001220840804419</v>
       </c>
       <c r="E39" t="n">
-        <v>4.168265969853714</v>
+        <v>4.124458686934089</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.232720645162476</v>
+        <v>-2.24412581082461</v>
       </c>
       <c r="G39" t="n">
-        <v>1.402413648504184</v>
+        <v>1.393342369715368</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.8760556589694725</v>
       </c>
       <c r="E40" t="n">
-        <v>3.835697675754621</v>
+        <v>3.784796019161271</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.160000759922633</v>
+        <v>-2.165840952286267</v>
       </c>
       <c r="G40" t="n">
-        <v>1.295694353395394</v>
+        <v>1.284497244586216</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.757051356014852</v>
       </c>
       <c r="E41" t="n">
-        <v>3.562007280969513</v>
+        <v>3.516430419763707</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.058236138010341</v>
+        <v>-2.070179331393975</v>
       </c>
       <c r="G41" t="n">
-        <v>1.177144288605972</v>
+        <v>1.165133933010157</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.6438612227297188</v>
       </c>
       <c r="E42" t="n">
-        <v>3.246826699585052</v>
+        <v>3.18791959930925</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.953825908957324</v>
+        <v>-1.959877808294141</v>
       </c>
       <c r="G42" t="n">
-        <v>1.080548966959543</v>
+        <v>1.065317745275183</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.5356748283279497</v>
       </c>
       <c r="E43" t="n">
-        <v>3.019780461160204</v>
+        <v>2.966855177912854</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.922954652123151</v>
+        <v>-1.931344818477557</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9722513598644811</v>
+        <v>0.952918863092759</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4336671030416889</v>
       </c>
       <c r="E44" t="n">
-        <v>2.762905440238091</v>
+        <v>2.713387909234922</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.881492936461571</v>
+        <v>-1.892483448465886</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8476216548245146</v>
+        <v>0.8326079803057004</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3385497492675618</v>
       </c>
       <c r="E45" t="n">
-        <v>2.500933391430616</v>
+        <v>2.448668049920357</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.74381040148888</v>
+        <v>-1.750214172415606</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7422047226128156</v>
+        <v>0.7283517863262738</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2505672946953686</v>
       </c>
       <c r="E46" t="n">
-        <v>2.29244874438549</v>
+        <v>2.244383961232776</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.67695333935808</v>
+        <v>-1.675106378523081</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7206003910116395</v>
+        <v>0.707560701511734</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.170181485867371</v>
       </c>
       <c r="E47" t="n">
-        <v>1.979846607929574</v>
+        <v>1.935630511544495</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.631896255272638</v>
+        <v>-1.63053403040382</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6085285596015787</v>
+        <v>0.5923512267543104</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.0972051184534672</v>
       </c>
       <c r="E48" t="n">
-        <v>1.830473467892978</v>
+        <v>1.792224588055443</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.564790984966383</v>
+        <v>-1.558908451208112</v>
       </c>
       <c r="G48" t="n">
-        <v>0.537138048148507</v>
+        <v>0.5225580079126927</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.03222434819325573</v>
       </c>
       <c r="E49" t="n">
-        <v>1.637582134458757</v>
+        <v>1.600130440878858</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.54646884147357</v>
+        <v>-1.543579406301661</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4616856829065273</v>
+        <v>0.4454046866448044</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.02524652218837016</v>
       </c>
       <c r="E50" t="n">
-        <v>1.531283333200149</v>
+        <v>1.493503128799796</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.42941824607351</v>
+        <v>-1.421747153403876</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4083472060494507</v>
+        <v>0.3915814738215461</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.07596057295762269</v>
       </c>
       <c r="E51" t="n">
-        <v>1.385284364301643</v>
+        <v>1.34636386234229</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.372578573894435</v>
+        <v>-1.364091314341982</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3382663577339241</v>
+        <v>0.3220379232034739</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1206175227833865</v>
       </c>
       <c r="E52" t="n">
-        <v>1.294571576413486</v>
+        <v>1.258152136833859</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.31567611964745</v>
+        <v>-1.303759207129453</v>
       </c>
       <c r="G52" t="n">
-        <v>0.272317445515669</v>
+        <v>0.256230635650037</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.160080058901632</v>
       </c>
       <c r="E53" t="n">
-        <v>1.075449018977999</v>
+        <v>1.03337043299801</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.264711680986191</v>
+        <v>-1.25060323628374</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2330596724473159</v>
+        <v>0.2169903831587748</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1948244390589419</v>
       </c>
       <c r="E54" t="n">
-        <v>1.141025618933072</v>
+        <v>1.106784571105081</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.257967718854284</v>
+        <v>-1.244085581605924</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1466438060907028</v>
+        <v>0.1280471735567987</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2253721041726775</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9576494189073032</v>
+        <v>0.9219351825555855</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.229680747141018</v>
+        <v>-1.218283611743385</v>
       </c>
       <c r="G55" t="n">
-        <v>0.09862720452498838</v>
+        <v>0.08105552575090219</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2523956090890667</v>
       </c>
       <c r="E56" t="n">
-        <v>0.9407610426397622</v>
+        <v>0.8990868899809553</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.195248433013119</v>
+        <v>-1.186206355186121</v>
       </c>
       <c r="G56" t="n">
-        <v>0.06169820816163467</v>
+        <v>0.04449738160263928</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2764470225032303</v>
       </c>
       <c r="E57" t="n">
-        <v>0.8437014257004247</v>
+        <v>0.799640094412982</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.166701572739672</v>
+        <v>-1.152737672798221</v>
       </c>
       <c r="G57" t="n">
-        <v>0.03345357784300589</v>
+        <v>0.01431964761164739</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2979276640964544</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7894387384018029</v>
+        <v>0.7475003170385415</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.155078129887948</v>
+        <v>-1.140217760418679</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.06317532490951362</v>
+        <v>-0.07966656809632737</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3169946018979407</v>
       </c>
       <c r="E59" t="n">
-        <v>0.6683686306074718</v>
+        <v>0.612491130120305</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.087961179196966</v>
+        <v>-1.077553956404969</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1250025213671334</v>
+        <v>-0.1429932339433104</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3341081891545649</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6878675728615574</v>
+        <v>0.6245058658603926</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.037977892852797</v>
+        <v>-1.025348476866437</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1488451066916724</v>
+        <v>-0.1711517214245755</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3498902299893755</v>
       </c>
       <c r="E61" t="n">
-        <v>0.558374447630774</v>
+        <v>0.4916312692510647</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.038056735449706</v>
+        <v>-1.028322594827618</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1931882272606605</v>
+        <v>-0.21876680976529</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3648514950673541</v>
       </c>
       <c r="E62" t="n">
-        <v>0.4726024624822516</v>
+        <v>0.4003038011166347</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.030922940477526</v>
+        <v>-1.018384047472803</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2622455818644602</v>
+        <v>-0.2862881937774537</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.3793329729361921</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4177820368129027</v>
+        <v>0.3496094713521937</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.108242707227779</v>
+        <v>-1.10062855643369</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2908318634363616</v>
+        <v>-0.3204547791528082</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3934768426590737</v>
       </c>
       <c r="E64" t="n">
-        <v>0.3413645797828323</v>
+        <v>0.2636885612983986</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.057000859429247</v>
+        <v>-1.04935750767334</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3472379013324374</v>
+        <v>-0.3759687276653387</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4076870400851108</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2703230198234877</v>
+        <v>0.1888377358698733</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.000650303360626</v>
+        <v>-0.9864148344742657</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3763760810827023</v>
+        <v>-0.4021035884926044</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4221172750501037</v>
       </c>
       <c r="E66" t="n">
-        <v>0.212652580280685</v>
+        <v>0.1289086019304348</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.051686284378339</v>
+        <v>-1.040499395905797</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3991951726955143</v>
+        <v>-0.4249153798649619</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.4367030884329229</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2439297304841312</v>
+        <v>0.164742562225607</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.042501121838433</v>
+        <v>-1.023504436127619</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4213776833406901</v>
+        <v>-0.4460495759808654</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.4512849864349495</v>
       </c>
       <c r="E68" t="n">
-        <v>0.157386839943609</v>
+        <v>0.07254198533281357</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.084699431761876</v>
+        <v>-1.071823267648152</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.436636645938777</v>
+        <v>-0.4582774787422257</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4652370210132657</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1102360468958034</v>
+        <v>0.03102697791591563</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.122643161548411</v>
+        <v>-1.10570660369387</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.451939409979591</v>
+        <v>-0.470969676796495</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4779925558545922</v>
       </c>
       <c r="E70" t="n">
-        <v>0.05438774737045481</v>
+        <v>-0.01744661870225317</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.203335639388662</v>
+        <v>-1.18538580815903</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4872696536833998</v>
+        <v>-0.509317839904212</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4884357170448872</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.004113459536074935</v>
+        <v>-0.07696401908005537</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.353561447510349</v>
+        <v>-1.333436144625263</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5638725368210156</v>
+        <v>-0.5876596403181</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4950747708366954</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.05394928102306155</v>
+        <v>-0.1229672143284067</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.390236395505885</v>
+        <v>-1.371810588598617</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5500239806787466</v>
+        <v>-0.569045487207105</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.496174111826048</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.06278987221351373</v>
+        <v>-0.1251718869456788</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.40316366130279</v>
+        <v>-1.382093707302887</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5744943866823763</v>
+        <v>-0.5957585270783706</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4900869414872899</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.02195524720697924</v>
+        <v>-0.08035279069905446</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.449055892896232</v>
+        <v>-1.421091591811058</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5832751159011013</v>
+        <v>-0.6020673948791871</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.475522111150114</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0227645657694633</v>
+        <v>-0.02672522431997796</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.517768676150578</v>
+        <v>-1.485863705268041</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5606093293378346</v>
+        <v>-0.5844562948066464</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.4514132481967753</v>
       </c>
       <c r="E76" t="n">
-        <v>0.07020736843545056</v>
+        <v>0.02021824189891853</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.436884932010418</v>
+        <v>-1.4000625191577</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5638856772538338</v>
+        <v>-0.5865719044903731</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4172481896247622</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1969132618606893</v>
+        <v>0.1497055269373383</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.430155570359419</v>
+        <v>-1.394912929541065</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.474279605818585</v>
+        <v>-0.4910102968923079</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3733127571648291</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3306522069398352</v>
+        <v>0.293602026584936</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.384244358140795</v>
+        <v>-1.347332882354533</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4962518695386701</v>
+        <v>-0.5128234153704838</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.3208017720792876</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4138647277849947</v>
+        <v>0.3791564645679131</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.346177984314624</v>
+        <v>-1.306794647110452</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.439930514431867</v>
+        <v>-0.455090193759772</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.2618452347969862</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5500185924065035</v>
+        <v>0.5208366112135113</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.361689535232438</v>
+        <v>-1.323574979819266</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.4043987840915129</v>
+        <v>-0.4164806820437824</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1993297406989694</v>
       </c>
       <c r="E81" t="n">
-        <v>0.591844590066765</v>
+        <v>0.5472328206490498</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.307951005198452</v>
+        <v>-1.262450066493373</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3136436548087191</v>
+        <v>-0.326518358874352</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.1369504999642606</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7051560023060074</v>
+        <v>0.6631474986343823</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.238952052518289</v>
+        <v>-1.198510180448209</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2883483216337259</v>
+        <v>-0.2989760116874503</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.07859401530816774</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8471792602529692</v>
+        <v>0.804709381384617</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.204991333923753</v>
+        <v>-1.168001015540581</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2238010555827432</v>
+        <v>-0.2358873336792854</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.02773996726460843</v>
       </c>
       <c r="E84" t="n">
-        <v>1.061061705090184</v>
+        <v>1.032736772126556</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.145358589746768</v>
+        <v>-1.109802038588869</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1941591592411148</v>
+        <v>-0.2049489146329301</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.0124361474851664</v>
       </c>
       <c r="E85" t="n">
-        <v>1.147446910436889</v>
+        <v>1.120363018350532</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.019314098106711</v>
+        <v>-0.9850058880665388</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.144006507318401</v>
+        <v>-0.150099288001763</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.0401635257513679</v>
       </c>
       <c r="E86" t="n">
-        <v>1.348866384770107</v>
+        <v>1.324629586461023</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9333829677162799</v>
+        <v>-0.9052814221105602</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06911626059142112</v>
+        <v>-0.07296348731096554</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.05420000602642062</v>
       </c>
       <c r="E87" t="n">
-        <v>1.454319818184079</v>
+        <v>1.435070544153539</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8441842496983948</v>
+        <v>-0.8235143488754003</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01609899431434444</v>
+        <v>-0.01796201567834394</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.05401770315161324</v>
       </c>
       <c r="E88" t="n">
-        <v>1.566523053922322</v>
+        <v>1.547548268932872</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7101795758667035</v>
+        <v>-0.69625947736798</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01150613494046632</v>
+        <v>0.01141561195882999</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.03930445081396004</v>
       </c>
       <c r="E89" t="n">
-        <v>1.666016571029204</v>
+        <v>1.654254423608843</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.6105809352972758</v>
+        <v>-0.6060270453017315</v>
       </c>
       <c r="G89" t="n">
-        <v>0.07114033916554122</v>
+        <v>0.07415387842517678</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.009579711567094223</v>
       </c>
       <c r="E90" t="n">
-        <v>1.703685811774648</v>
+        <v>1.701114667086558</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5161435647292102</v>
+        <v>-0.5140396354302107</v>
       </c>
       <c r="G90" t="n">
-        <v>0.07355963885217694</v>
+        <v>0.07529709608035828</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.03484356106982032</v>
       </c>
       <c r="E91" t="n">
-        <v>1.707486316955284</v>
+        <v>1.706654089543466</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.331348197959078</v>
+        <v>-0.3337631175014409</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1107835649298942</v>
+        <v>0.1161346411830746</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.09224862336095788</v>
       </c>
       <c r="E92" t="n">
-        <v>1.701025604153013</v>
+        <v>1.697857299795741</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1864603256577533</v>
+        <v>-0.195354938627569</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1285830112061622</v>
+        <v>0.1351430072786149</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1595104741629617</v>
       </c>
       <c r="E93" t="n">
-        <v>1.717807396909917</v>
+        <v>1.721628342763825</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.01503899940034473</v>
+        <v>-0.01870810025279829</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1104316933399852</v>
+        <v>0.1186298633704376</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2321287759159082</v>
       </c>
       <c r="E94" t="n">
-        <v>1.666736374738022</v>
+        <v>1.672287477579657</v>
       </c>
       <c r="F94" t="n">
-        <v>0.08099420373108403</v>
+        <v>0.07157981364090474</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04415573034936665</v>
+        <v>0.0556623693538181</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.3048457048505834</v>
       </c>
       <c r="E95" t="n">
-        <v>1.599508460392131</v>
+        <v>1.608883429183856</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2002538518926884</v>
+        <v>0.1909066240146909</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01781500274128281</v>
+        <v>0.03064590536418846</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.3726595590249867</v>
       </c>
       <c r="E96" t="n">
-        <v>1.48922080774916</v>
+        <v>1.50170421892643</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2410563558412229</v>
+        <v>0.2318303119547708</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.0039061327071659</v>
+        <v>0.01190910821355712</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.4308814710563674</v>
       </c>
       <c r="E97" t="n">
-        <v>1.341369037823291</v>
+        <v>1.352018628598379</v>
       </c>
       <c r="F97" t="n">
-        <v>0.307963059607114</v>
+        <v>0.2989998243770255</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04112129849633773</v>
+        <v>-0.0329756901971581</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.4766650131456618</v>
       </c>
       <c r="E98" t="n">
-        <v>1.237632620964228</v>
+        <v>1.249575814347861</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3436670756221953</v>
+        <v>0.3344045305334705</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.04843905952797212</v>
+        <v>-0.03422841145915776</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.5087403864235296</v>
       </c>
       <c r="E99" t="n">
-        <v>1.074158336465636</v>
+        <v>1.081868850433724</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3482749873971032</v>
+        <v>0.3384240429277422</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09957286376777658</v>
+        <v>-0.08982704276096101</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.5261597737112873</v>
       </c>
       <c r="E100" t="n">
-        <v>0.989986564024749</v>
+        <v>0.997854763186656</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3148121452015667</v>
+        <v>0.3061409195896599</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1495955714103995</v>
+        <v>-0.1441744128488555</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.5305420647155795</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8634398158414194</v>
+        <v>0.8733009806474167</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3520506717601931</v>
+        <v>0.3486750405740122</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.09628045532277746</v>
+        <v>-0.08389924751187169</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.5224741652927657</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7193213888840035</v>
+        <v>0.7257207796664563</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2873647011405741</v>
+        <v>0.2809200488673031</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2021792034044763</v>
+        <v>-0.1928553362959333</v>
       </c>
     </row>
   </sheetData>
